--- a/results/mp/tinybert/corona/confidence/210/stop-words-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/210/stop-words-0.5/avg_0.004_scores.xlsx
@@ -40,127 +40,127 @@
     <t>name</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>low</t>
   </si>
   <si>
     <t>stop</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>demand</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>love</t>
+    <t>special</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>thank</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>great</t>
+    <t>confidence</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
-    <t>positive</t>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>well</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>care</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
-    <t>increase</t>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>shopping</t>
   </si>
   <si>
     <t>online</t>
   </si>
   <si>
-    <t>shopping</t>
+    <t>store</t>
   </si>
   <si>
     <t>grocery</t>
-  </si>
-  <si>
-    <t>store</t>
   </si>
   <si>
     <t>consumer</t>
@@ -533,7 +533,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q37"/>
+  <dimension ref="A1:Q41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -541,10 +541,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -602,37 +602,37 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8823529411764706</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C3">
+        <v>28</v>
+      </c>
+      <c r="D3">
+        <v>28</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>6</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D3">
-        <v>15</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -644,7 +644,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -652,13 +652,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8</v>
+        <v>0.6301369863013698</v>
       </c>
       <c r="C4">
-        <v>20</v>
+        <v>184</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>184</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -670,31 +670,31 @@
         <v>0</v>
       </c>
       <c r="H4">
+        <v>108</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4">
+        <v>0.9152542372881356</v>
+      </c>
+      <c r="L4">
+        <v>54</v>
+      </c>
+      <c r="M4">
+        <v>54</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>5</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4">
-        <v>0.96875</v>
-      </c>
-      <c r="L4">
-        <v>31</v>
-      </c>
-      <c r="M4">
-        <v>31</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -702,13 +702,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7272727272727273</v>
+        <v>0.3003875968992248</v>
       </c>
       <c r="C5">
-        <v>112</v>
+        <v>155</v>
       </c>
       <c r="D5">
-        <v>112</v>
+        <v>155</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -720,19 +720,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>42</v>
+        <v>361</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K5">
-        <v>0.9166666666666666</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L5">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="M5">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -752,13 +752,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6666666666666666</v>
+        <v>0.2169312169312169</v>
       </c>
       <c r="C6">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="D6">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -770,19 +770,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>148</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="K6">
-        <v>0.9</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L6">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="M6">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -794,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -802,13 +802,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5357142857142857</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="C7">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D7">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -820,19 +820,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K7">
-        <v>0.875</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="L7">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="M7">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -844,7 +844,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -852,13 +852,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.4377682403433477</v>
+        <v>0.1349206349206349</v>
       </c>
       <c r="C8">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="D8">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -870,245 +870,149 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>131</v>
+        <v>218</v>
       </c>
       <c r="J8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8">
+        <v>0.7931034482758621</v>
+      </c>
+      <c r="L8">
+        <v>46</v>
+      </c>
+      <c r="M8">
+        <v>46</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="J9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9">
+        <v>0.7843137254901961</v>
+      </c>
+      <c r="L9">
+        <v>40</v>
+      </c>
+      <c r="M9">
+        <v>40</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="J10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10">
+        <v>0.78125</v>
+      </c>
+      <c r="L10">
+        <v>100</v>
+      </c>
+      <c r="M10">
+        <v>100</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="J11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11">
+        <v>0.7804878048780488</v>
+      </c>
+      <c r="L11">
+        <v>64</v>
+      </c>
+      <c r="M11">
+        <v>64</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="J12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K8">
-        <v>0.8627450980392157</v>
-      </c>
-      <c r="L8">
-        <v>44</v>
-      </c>
-      <c r="M8">
-        <v>44</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>0.325</v>
-      </c>
-      <c r="C9">
-        <v>26</v>
-      </c>
-      <c r="D9">
-        <v>26</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>54</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K9">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="L9">
-        <v>48</v>
-      </c>
-      <c r="M9">
-        <v>48</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
+      <c r="K12">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="L12">
+        <v>28</v>
+      </c>
+      <c r="M12">
+        <v>28</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
         <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>0.2090909090909091</v>
-      </c>
-      <c r="C10">
-        <v>23</v>
-      </c>
-      <c r="D10">
-        <v>23</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>87</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K10">
-        <v>0.8148148148148148</v>
-      </c>
-      <c r="L10">
-        <v>22</v>
-      </c>
-      <c r="M10">
-        <v>22</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0.1976744186046512</v>
-      </c>
-      <c r="C11">
-        <v>17</v>
-      </c>
-      <c r="D11">
-        <v>17</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>69</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K11">
-        <v>0.8</v>
-      </c>
-      <c r="L11">
-        <v>20</v>
-      </c>
-      <c r="M11">
-        <v>20</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>0.08064516129032258</v>
-      </c>
-      <c r="C12">
-        <v>15</v>
-      </c>
-      <c r="D12">
-        <v>15</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>171</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K12">
-        <v>0.7843137254901961</v>
-      </c>
-      <c r="L12">
-        <v>40</v>
-      </c>
-      <c r="M12">
-        <v>40</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K13">
-        <v>0.7777777777777778</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="L13">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="M13">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1120,21 +1024,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K14">
-        <v>0.7692307692307693</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="L14">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="M14">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1146,21 +1050,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K15">
-        <v>0.7586206896551724</v>
+        <v>0.7547169811320755</v>
       </c>
       <c r="L15">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="M15">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1172,21 +1076,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K16">
-        <v>0.7586206896551724</v>
+        <v>0.7464788732394366</v>
       </c>
       <c r="L16">
-        <v>22</v>
+        <v>106</v>
       </c>
       <c r="M16">
-        <v>22</v>
+        <v>106</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1198,21 +1102,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K17">
-        <v>0.726027397260274</v>
+        <v>0.71875</v>
       </c>
       <c r="L17">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="M17">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1224,21 +1128,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>20</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K18">
-        <v>0.7</v>
+        <v>0.6984126984126984</v>
       </c>
       <c r="L18">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="M18">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1250,21 +1154,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="K19">
-        <v>0.6923076923076923</v>
+        <v>0.66</v>
       </c>
       <c r="L19">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="M19">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1276,21 +1180,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="K20">
-        <v>0.6363636363636364</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="L20">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="M20">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1302,21 +1206,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K21">
-        <v>0.625</v>
+        <v>0.6276595744680851</v>
       </c>
       <c r="L21">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="M21">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1328,21 +1232,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>9</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K22">
-        <v>0.6244131455399061</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="L22">
-        <v>133</v>
+        <v>28</v>
       </c>
       <c r="M22">
-        <v>133</v>
+        <v>28</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1354,21 +1258,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>80</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K23">
-        <v>0.5736434108527132</v>
+        <v>0.6083550913838121</v>
       </c>
       <c r="L23">
-        <v>74</v>
+        <v>233</v>
       </c>
       <c r="M23">
-        <v>74</v>
+        <v>233</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1380,21 +1284,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>55</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K24">
-        <v>0.5714285714285714</v>
+        <v>0.5029411764705882</v>
       </c>
       <c r="L24">
-        <v>20</v>
+        <v>171</v>
       </c>
       <c r="M24">
-        <v>20</v>
+        <v>171</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1406,21 +1310,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>15</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K25">
-        <v>0.5600000000000001</v>
+        <v>0.488135593220339</v>
       </c>
       <c r="L25">
-        <v>14</v>
+        <v>144</v>
       </c>
       <c r="M25">
-        <v>14</v>
+        <v>144</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1432,21 +1336,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>11</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="K26">
-        <v>0.5555555555555556</v>
+        <v>0.4769230769230769</v>
       </c>
       <c r="L26">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="M26">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1458,21 +1362,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>64</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K27">
-        <v>0.5543478260869565</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="L27">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="M27">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1484,21 +1388,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="K28">
-        <v>0.4594594594594595</v>
+        <v>0.4606741573033708</v>
       </c>
       <c r="L28">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="M28">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1510,21 +1414,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K29">
-        <v>0.1313131313131313</v>
+        <v>0.4383561643835616</v>
       </c>
       <c r="L29">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="M29">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1536,21 +1440,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>172</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K30">
-        <v>0.0861244019138756</v>
+        <v>0.4225941422594142</v>
       </c>
       <c r="L30">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="M30">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1562,21 +1466,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>191</v>
+        <v>138</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K31">
-        <v>0.0539906103286385</v>
+        <v>0.40625</v>
       </c>
       <c r="L31">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M31">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1588,21 +1492,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>403</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K32">
-        <v>0.05365853658536585</v>
+        <v>0.3714285714285714</v>
       </c>
       <c r="L32">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M32">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1614,137 +1518,241 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>388</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="K33">
-        <v>0.04761904761904762</v>
+        <v>0.0966183574879227</v>
       </c>
       <c r="L33">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="M33">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="N33">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33">
-        <v>300</v>
+        <v>374</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="K34">
-        <v>0.04279279279279279</v>
+        <v>0.09592326139088729</v>
       </c>
       <c r="L34">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="M34">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="N34">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34">
-        <v>425</v>
+        <v>377</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="K35">
-        <v>0.02777777777777778</v>
+        <v>0.06823266219239374</v>
       </c>
       <c r="L35">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="M35">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="N35">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>1085</v>
+        <v>833</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="K36">
-        <v>0.01352221506761108</v>
+        <v>0.05660377358490566</v>
       </c>
       <c r="L36">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="M36">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N36">
-        <v>0.66</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>1532</v>
+        <v>850</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K37">
+        <v>0.05108359133126935</v>
+      </c>
+      <c r="L37">
+        <v>33</v>
+      </c>
+      <c r="M37">
+        <v>37</v>
+      </c>
+      <c r="N37">
+        <v>0.89</v>
+      </c>
+      <c r="O37">
+        <v>0.11</v>
+      </c>
+      <c r="P37" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17">
+      <c r="J38" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K38">
+        <v>0.04971098265895954</v>
+      </c>
+      <c r="L38">
+        <v>43</v>
+      </c>
+      <c r="M38">
+        <v>45</v>
+      </c>
+      <c r="N38">
+        <v>0.96</v>
+      </c>
+      <c r="O38">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P38" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17">
+      <c r="J39" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K39">
+        <v>0.03514526710402999</v>
+      </c>
+      <c r="L39">
+        <v>75</v>
+      </c>
+      <c r="M39">
+        <v>84</v>
+      </c>
+      <c r="N39">
+        <v>0.89</v>
+      </c>
+      <c r="O39">
+        <v>0.11</v>
+      </c>
+      <c r="P39" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K40">
+        <v>0.03136113805366958</v>
+      </c>
+      <c r="L40">
+        <v>97</v>
+      </c>
+      <c r="M40">
+        <v>111</v>
+      </c>
+      <c r="N40">
+        <v>0.87</v>
+      </c>
+      <c r="O40">
+        <v>0.13</v>
+      </c>
+      <c r="P40" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>2996</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="K37">
-        <v>0.0119496855345912</v>
-      </c>
-      <c r="L37">
-        <v>19</v>
-      </c>
-      <c r="M37">
-        <v>26</v>
-      </c>
-      <c r="N37">
-        <v>0.73</v>
-      </c>
-      <c r="O37">
-        <v>0.27</v>
-      </c>
-      <c r="P37" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q37">
-        <v>1571</v>
+      <c r="K41">
+        <v>0.02163687676387582</v>
+      </c>
+      <c r="L41">
+        <v>69</v>
+      </c>
+      <c r="M41">
+        <v>81</v>
+      </c>
+      <c r="N41">
+        <v>0.85</v>
+      </c>
+      <c r="O41">
+        <v>0.15</v>
+      </c>
+      <c r="P41" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>3120</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/210/stop-words-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/210/stop-words-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
   <si>
     <t>anchor score</t>
   </si>
@@ -61,105 +61,108 @@
     <t>negative</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>interesting</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>heroes</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>great</t>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>free</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>safety</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>well</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
+    <t>fresh</t>
+  </si>
+  <si>
     <t>relief</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>well</t>
+    <t>hand</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>hand</t>
+    <t>help</t>
+  </si>
+  <si>
+    <t>care</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
     <t>hope</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
-    <t>care</t>
+    <t>please</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
     <t>sure</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
     <t>shopping</t>
   </si>
   <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
     <t>grocery</t>
   </si>
   <si>
@@ -173,6 +176,9 @@
   </si>
   <si>
     <t>co</t>
+  </si>
+  <si>
+    <t>food</t>
   </si>
   <si>
     <t>corona</t>
@@ -533,7 +539,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q41"/>
+  <dimension ref="A1:Q43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -544,7 +550,7 @@
         <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -602,13 +608,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8235294117647058</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="C3">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -620,19 +626,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K3">
-        <v>0.9782608695652174</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L3">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="M3">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -644,7 +650,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -652,13 +658,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6301369863013698</v>
+        <v>0.660958904109589</v>
       </c>
       <c r="C4">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="D4">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -670,19 +676,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K4">
-        <v>0.9152542372881356</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L4">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="M4">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -694,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -702,13 +708,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.3003875968992248</v>
+        <v>0.3158914728682171</v>
       </c>
       <c r="C5">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="D5">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -720,19 +726,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K5">
-        <v>0.9090909090909091</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L5">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="M5">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -744,7 +750,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -752,13 +758,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.2169312169312169</v>
+        <v>0.2433862433862434</v>
       </c>
       <c r="C6">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D6">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -770,19 +776,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K6">
-        <v>0.8611111111111112</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L6">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="M6">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -794,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -826,13 +832,13 @@
         <v>19</v>
       </c>
       <c r="K7">
-        <v>0.8482142857142857</v>
+        <v>0.8359375</v>
       </c>
       <c r="L7">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="M7">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -844,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -852,13 +858,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.1349206349206349</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="C8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -870,19 +876,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K8">
-        <v>0.7931034482758621</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L8">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="M8">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -894,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -902,13 +908,13 @@
         <v>21</v>
       </c>
       <c r="K9">
-        <v>0.7843137254901961</v>
+        <v>0.8085106382978723</v>
       </c>
       <c r="L9">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M9">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -920,7 +926,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -928,13 +934,13 @@
         <v>22</v>
       </c>
       <c r="K10">
-        <v>0.78125</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L10">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="M10">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -946,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -954,13 +960,13 @@
         <v>23</v>
       </c>
       <c r="K11">
-        <v>0.7804878048780488</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="L11">
-        <v>64</v>
+        <v>111</v>
       </c>
       <c r="M11">
-        <v>64</v>
+        <v>111</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -972,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -980,13 +986,13 @@
         <v>24</v>
       </c>
       <c r="K12">
-        <v>0.7777777777777778</v>
+        <v>0.7641509433962265</v>
       </c>
       <c r="L12">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="M12">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -998,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1006,13 +1012,13 @@
         <v>25</v>
       </c>
       <c r="K13">
-        <v>0.7666666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="L13">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="M13">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1024,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1032,13 +1038,13 @@
         <v>26</v>
       </c>
       <c r="K14">
-        <v>0.7659574468085106</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="L14">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="M14">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1050,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1058,13 +1064,13 @@
         <v>27</v>
       </c>
       <c r="K15">
-        <v>0.7547169811320755</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="L15">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="M15">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1076,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1084,13 +1090,13 @@
         <v>28</v>
       </c>
       <c r="K16">
-        <v>0.7464788732394366</v>
+        <v>0.69375</v>
       </c>
       <c r="L16">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="M16">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1102,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1110,13 +1116,13 @@
         <v>29</v>
       </c>
       <c r="K17">
-        <v>0.71875</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="L17">
-        <v>115</v>
+        <v>33</v>
       </c>
       <c r="M17">
-        <v>115</v>
+        <v>33</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1128,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1136,13 +1142,13 @@
         <v>30</v>
       </c>
       <c r="K18">
-        <v>0.6984126984126984</v>
+        <v>0.6276595744680851</v>
       </c>
       <c r="L18">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="M18">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1154,7 +1160,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1162,13 +1168,13 @@
         <v>31</v>
       </c>
       <c r="K19">
-        <v>0.66</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="L19">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="M19">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1180,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1188,13 +1194,13 @@
         <v>32</v>
       </c>
       <c r="K20">
-        <v>0.6458333333333334</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="L20">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M20">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1206,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1214,13 +1220,13 @@
         <v>33</v>
       </c>
       <c r="K21">
-        <v>0.6276595744680851</v>
+        <v>0.6</v>
       </c>
       <c r="L21">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="M21">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1232,7 +1238,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1240,13 +1246,13 @@
         <v>34</v>
       </c>
       <c r="K22">
-        <v>0.6222222222222222</v>
+        <v>0.5744125326370757</v>
       </c>
       <c r="L22">
-        <v>28</v>
+        <v>220</v>
       </c>
       <c r="M22">
-        <v>28</v>
+        <v>220</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1258,7 +1264,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>17</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1266,13 +1272,13 @@
         <v>35</v>
       </c>
       <c r="K23">
-        <v>0.6083550913838121</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L23">
-        <v>233</v>
+        <v>25</v>
       </c>
       <c r="M23">
-        <v>233</v>
+        <v>25</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1284,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>150</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1292,13 +1298,13 @@
         <v>36</v>
       </c>
       <c r="K24">
-        <v>0.5029411764705882</v>
+        <v>0.5118644067796611</v>
       </c>
       <c r="L24">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="M24">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1310,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>169</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1318,13 +1324,13 @@
         <v>37</v>
       </c>
       <c r="K25">
-        <v>0.488135593220339</v>
+        <v>0.5056179775280899</v>
       </c>
       <c r="L25">
-        <v>144</v>
+        <v>45</v>
       </c>
       <c r="M25">
-        <v>144</v>
+        <v>45</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1336,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>151</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1344,13 +1350,13 @@
         <v>38</v>
       </c>
       <c r="K26">
-        <v>0.4769230769230769</v>
+        <v>0.4970588235294118</v>
       </c>
       <c r="L26">
-        <v>31</v>
+        <v>169</v>
       </c>
       <c r="M26">
-        <v>31</v>
+        <v>169</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1362,7 +1368,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>34</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1370,25 +1376,25 @@
         <v>39</v>
       </c>
       <c r="K27">
-        <v>0.4615384615384616</v>
+        <v>0.4461538461538462</v>
       </c>
       <c r="L27">
+        <v>29</v>
+      </c>
+      <c r="M27">
+        <v>29</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
         <v>36</v>
-      </c>
-      <c r="M27">
-        <v>36</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>42</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1396,13 +1402,13 @@
         <v>40</v>
       </c>
       <c r="K28">
-        <v>0.4606741573033708</v>
+        <v>0.4230769230769231</v>
       </c>
       <c r="L28">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="M28">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1414,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1422,13 +1428,13 @@
         <v>41</v>
       </c>
       <c r="K29">
-        <v>0.4383561643835616</v>
+        <v>0.4142259414225942</v>
       </c>
       <c r="L29">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="M29">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1440,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>41</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1448,13 +1454,13 @@
         <v>42</v>
       </c>
       <c r="K30">
-        <v>0.4225941422594142</v>
+        <v>0.3972602739726027</v>
       </c>
       <c r="L30">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="M30">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1466,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>138</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1474,13 +1480,13 @@
         <v>43</v>
       </c>
       <c r="K31">
-        <v>0.40625</v>
+        <v>0.390625</v>
       </c>
       <c r="L31">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M31">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1492,7 +1498,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1500,13 +1506,13 @@
         <v>44</v>
       </c>
       <c r="K32">
-        <v>0.3714285714285714</v>
+        <v>0.3857142857142857</v>
       </c>
       <c r="L32">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M32">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1518,7 +1524,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1526,25 +1532,25 @@
         <v>45</v>
       </c>
       <c r="K33">
-        <v>0.0966183574879227</v>
+        <v>0.1151079136690648</v>
       </c>
       <c r="L33">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="M33">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="N33">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="O33">
-        <v>0.05000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P33" t="b">
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>374</v>
+        <v>369</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1552,25 +1558,25 @@
         <v>46</v>
       </c>
       <c r="K34">
-        <v>0.09592326139088729</v>
+        <v>0.0856269113149847</v>
       </c>
       <c r="L34">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="M34">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="N34">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>377</v>
+        <v>299</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1578,25 +1584,25 @@
         <v>47</v>
       </c>
       <c r="K35">
-        <v>0.06823266219239374</v>
+        <v>0.0761478163493841</v>
       </c>
       <c r="L35">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="M35">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="N35">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35">
-        <v>833</v>
+        <v>825</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1604,13 +1610,13 @@
         <v>48</v>
       </c>
       <c r="K36">
-        <v>0.05660377358490566</v>
+        <v>0.06490384615384616</v>
       </c>
       <c r="L36">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="M36">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1622,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>850</v>
+        <v>389</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1630,25 +1636,25 @@
         <v>49</v>
       </c>
       <c r="K37">
-        <v>0.05108359133126935</v>
+        <v>0.05993340732519423</v>
       </c>
       <c r="L37">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="M37">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="N37">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>613</v>
+        <v>847</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1656,25 +1662,25 @@
         <v>50</v>
       </c>
       <c r="K38">
-        <v>0.04971098265895954</v>
+        <v>0.05255023183925812</v>
       </c>
       <c r="L38">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="M38">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="N38">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="O38">
-        <v>0.04000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P38" t="b">
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>822</v>
+        <v>613</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1682,25 +1688,25 @@
         <v>51</v>
       </c>
       <c r="K39">
-        <v>0.03514526710402999</v>
+        <v>0.04849884526558892</v>
       </c>
       <c r="L39">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="M39">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="N39">
-        <v>0.89</v>
+        <v>0.98</v>
       </c>
       <c r="O39">
-        <v>0.11</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P39" t="b">
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>2059</v>
+        <v>824</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1708,25 +1714,25 @@
         <v>52</v>
       </c>
       <c r="K40">
-        <v>0.03136113805366958</v>
+        <v>0.04260299625468165</v>
       </c>
       <c r="L40">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="M40">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="N40">
-        <v>0.87</v>
+        <v>0.93</v>
       </c>
       <c r="O40">
-        <v>0.13</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P40" t="b">
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>2996</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1734,25 +1740,77 @@
         <v>53</v>
       </c>
       <c r="K41">
-        <v>0.02163687676387582</v>
+        <v>0.03263327948303716</v>
       </c>
       <c r="L41">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="M41">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="N41">
-        <v>0.85</v>
+        <v>0.89</v>
       </c>
       <c r="O41">
-        <v>0.15</v>
+        <v>0.11</v>
       </c>
       <c r="P41" t="b">
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>3120</v>
+        <v>2994</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K42">
+        <v>0.02901554404145078</v>
+      </c>
+      <c r="L42">
+        <v>28</v>
+      </c>
+      <c r="M42">
+        <v>31</v>
+      </c>
+      <c r="N42">
+        <v>0.9</v>
+      </c>
+      <c r="O42">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="P42" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="43" spans="10:17">
+      <c r="J43" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K43">
+        <v>0.01665619107479573</v>
+      </c>
+      <c r="L43">
+        <v>53</v>
+      </c>
+      <c r="M43">
+        <v>72</v>
+      </c>
+      <c r="N43">
+        <v>0.74</v>
+      </c>
+      <c r="O43">
+        <v>0.26</v>
+      </c>
+      <c r="P43" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q43">
+        <v>3129</v>
       </c>
     </row>
   </sheetData>
